--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2048182.613124811</v>
+        <v>2152362.247575883</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9727467.654030565</v>
+        <v>9727467.654030563</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>149.0897904115716</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>191.2490250244967</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.8609515358568</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>74.29917882302473</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>208.3615960537172</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>4.443625914095164</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>44.17904656871047</v>
       </c>
       <c r="T7" t="n">
-        <v>80.2179770316931</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>65.37618332859863</v>
+        <v>185.2832887589949</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>74.16376468517129</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0900968852894</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.01360035611808</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>77.93612009725614</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>144.8592102470453</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>67.43549003635356</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>115.7228684476132</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>6.600826611594925</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>142.7059665293338</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>233.0346528866204</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.90335196317894</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.03099717513950509</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.3830930556859</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>245.879692121443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>2198.179586173208</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1829.217069232797</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1470.951370626046</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1085.163118027802</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>674.1772132381946</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>259.104763083191</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3022.134319778188</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>2768.603843052024</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.540955708454</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.772300438339</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.306542177259</v>
+        <v>2588.31891814902</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.167210201447</v>
+        <v>2198.179586173208</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556936</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614558</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609102</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635987</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>936.5735814686058</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064733</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080113</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986285</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201684</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695164</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.38058137302</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507435</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275693</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547491</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341958</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>482.8906159540807</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1762.414415267207</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1540.647799836734</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1251.544932962377</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>996.8604447564901</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>707.4432747195295</v>
       </c>
       <c r="X4" t="n">
-        <v>776.2700148307995</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.4774356872693</v>
+        <v>479.4537238215122</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528559</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528559</v>
+        <v>1442.617229168677</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2751.318417769984</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.318417769984</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508904</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,7 +4661,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.41198488674</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4729,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915318</v>
+        <v>1882.669248524138</v>
       </c>
       <c r="T7" t="n">
-        <v>1654.580404287345</v>
+        <v>1660.902633093664</v>
       </c>
       <c r="U7" t="n">
-        <v>1365.477537412989</v>
+        <v>1660.902633093664</v>
       </c>
       <c r="V7" t="n">
-        <v>1365.477537412989</v>
+        <v>1406.218144887777</v>
       </c>
       <c r="W7" t="n">
-        <v>1076.060367376028</v>
+        <v>1406.218144887777</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>1178.22859398976</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>957.4360148462299</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794322</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2689.770379977556</v>
+        <v>2774.629839279804</v>
       </c>
       <c r="W8" t="n">
-        <v>2689.770379977556</v>
+        <v>2421.86118400969</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>2048.39542574861</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.837793613838</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C10" t="n">
-        <v>163.837793613838</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>163.837793613838</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1852.381654467108</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915318</v>
+        <v>1660.695770293934</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484844</v>
+        <v>1438.92915486346</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610487</v>
+        <v>1149.826287989104</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046005</v>
+        <v>1149.826287989104</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676399</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696226</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y10" t="n">
-        <v>345.4862584440777</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>417.6289352913128</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2185.384895601573</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1896.309668945771</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613761</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5524,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>598.4481918884546</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>450.5350983060615</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>303.6451508081511</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>161.9333196503492</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>100.4841646758455</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558404</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2588.787486630497</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2939.372134388645</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C31" t="n">
-        <v>2770.435951460738</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>2770.435951460738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2626.288510522017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2479.398563024106</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.388512467612</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>2817.800993781637</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>545.3854261579752</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>397.4723325755821</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>250.5823850776717</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.0191461778176</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.931773302342</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.076938957246</v>
       </c>
       <c r="T40" t="n">
-        <v>2251.626625948255</v>
+        <v>2044.475473980187</v>
       </c>
       <c r="U40" t="n">
-        <v>1962.551399292452</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V40" t="n">
-        <v>1707.866911086565</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W40" t="n">
-        <v>1418.449741049605</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X40" t="n">
-        <v>1190.460190151587</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y40" t="n">
-        <v>969.6676110080573</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4221.331149328841</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7630,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>66.51053793615077</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.4693302300321</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>13.83034628221198</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>32.8926045705992</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.727996117235335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>53.48834544997058</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>150.6207863290899</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.34424953498218</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.0223572716024</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>40.64330621514796</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314489</v>
+      </c>
+      <c r="C4" t="n">
         <v>90354.06702314483</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314492</v>
-      </c>
       <c r="D4" t="n">
-        <v>90354.06702314493</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,13 +26441,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26470,10 +26472,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931777.4701605252</v>
+        <v>-931777.4701605247</v>
       </c>
       <c r="C6" t="n">
-        <v>396967.2755670679</v>
+        <v>396967.2755670673</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670671</v>
+        <v>396967.2755670673</v>
       </c>
       <c r="E6" t="n">
-        <v>147479.2608921978</v>
+        <v>147479.2608921987</v>
       </c>
       <c r="F6" t="n">
+        <v>472891.722699554</v>
+      </c>
+      <c r="G6" t="n">
+        <v>472891.7226995536</v>
+      </c>
+      <c r="H6" t="n">
+        <v>472891.7226995536</v>
+      </c>
+      <c r="I6" t="n">
+        <v>472891.7226995538</v>
+      </c>
+      <c r="J6" t="n">
+        <v>255360.5203022765</v>
+      </c>
+      <c r="K6" t="n">
         <v>472891.7226995539</v>
-      </c>
-      <c r="G6" t="n">
-        <v>472891.722699554</v>
-      </c>
-      <c r="H6" t="n">
-        <v>472891.7226995537</v>
-      </c>
-      <c r="I6" t="n">
-        <v>472891.7226995541</v>
-      </c>
-      <c r="J6" t="n">
-        <v>255360.5203022763</v>
-      </c>
-      <c r="K6" t="n">
-        <v>472891.7226995538</v>
       </c>
       <c r="L6" t="n">
         <v>472891.7226995537</v>
       </c>
       <c r="M6" t="n">
-        <v>387836.6947640416</v>
+        <v>387836.694764042</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995537</v>
+        <v>472891.7226995536</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995539</v>
+        <v>472891.7226995536</v>
       </c>
       <c r="P6" t="n">
         <v>472891.7226995538</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022922</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>145.5179739757489</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>12.66894511512342</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.9710286460805</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>115.4698465084172</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>173.5687740185445</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>323.3086325560398</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>145.5899787627314</v>
       </c>
       <c r="T7" t="n">
-        <v>139.3309722444761</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>262.3760751415363</v>
+        <v>142.46896971114</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>14.76838798487604</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.4945564668054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>366.8427442359106</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32788,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>423.9151577118742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33022,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33046,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.3182595810212</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33737,13 +33739,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868574</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34207,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,16 +34447,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013304</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>235.5010321525773</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>285.360777932</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36694,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3364854949997</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37385,13 +37387,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648392</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2152362.247575883</v>
+        <v>2148349.637561891</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>324.2757366615648</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>149.0897904115716</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>14.46917553865621</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -867,10 +867,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>74.29917882302473</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>208.3615960537172</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.17904656871047</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>180.2740132190241</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>185.2832887589949</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>74.16376468517129</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>99.01360035611808</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>147.8972104906228</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.8592102470453</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>94.64226186542875</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>67.43549003635356</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>115.7228684476132</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>6.600826611594925</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>233.0346528866204</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>67.96386702300485</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03099717513950509</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2198.179586173208</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C2" t="n">
-        <v>1829.217069232797</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D2" t="n">
-        <v>1470.951370626046</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>1085.163118027802</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>674.1772132381946</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>259.104763083191</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4336,7 +4336,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609169</v>
@@ -4366,16 +4366,16 @@
         <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.7846764101</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.31891814902</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.179586173208</v>
+        <v>2630.72178906653</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635987</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686058</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064733</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080113</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986285</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201684</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>479.4537238215122</v>
+        <v>471.5602567208161</v>
       </c>
       <c r="C4" t="n">
-        <v>479.4537238215122</v>
+        <v>471.5602567208161</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>471.5602567208161</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>471.5602567208161</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>324.6703092229058</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4515,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1762.414415267207</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1540.647799836734</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1251.544932962377</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>996.8604447564901</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W4" t="n">
-        <v>707.4432747195295</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X4" t="n">
-        <v>479.4537238215122</v>
+        <v>874.001300694586</v>
       </c>
       <c r="Y4" t="n">
-        <v>479.4537238215122</v>
+        <v>653.2087215510559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1811.579746109089</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1442.617229168677</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1442.617229168677</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149022</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.17958617321</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1882.669248524138</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1660.902633093664</v>
+        <v>1745.199585240994</v>
       </c>
       <c r="U7" t="n">
-        <v>1660.902633093664</v>
+        <v>1745.199585240994</v>
       </c>
       <c r="V7" t="n">
-        <v>1406.218144887777</v>
+        <v>1745.199585240994</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.218144887777</v>
+        <v>1455.782415204033</v>
       </c>
       <c r="X7" t="n">
-        <v>1178.22859398976</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.4360148462299</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.795585684488</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2774.629839279804</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2421.86118400969</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.39542574861</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.39542574861</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.9680739783734</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1852.381654467108</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1660.695770293934</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1438.92915486346</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1149.826287989104</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1149.826287989104</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>860.4091179521432</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>860.4091179521432</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y10" t="n">
-        <v>639.6165388086131</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5188827892232</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>564.5188827892232</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>417.6289352913128</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>598.4481918884546</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>450.5350983060615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>303.6451508081511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>303.6451508081511</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>161.9333196503492</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628157</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.28948970025</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536905</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499944</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601927</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458397</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>267.6802639609656</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>267.6802639609656</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>100.4841646758455</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.5764010855557</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,22 +7156,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.931773302342</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.076938957246</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.475473980187</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.400247324385</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.715759118498</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.298589081537</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.30903818352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51053793615077</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>77.81244489841438</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>45.65245098079514</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>13.83034628221198</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>32.8926045705992</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>53.48834544997058</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.34424953498218</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
   </sheetData>
@@ -26319,34 +26319,34 @@
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752547</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26447,7 +26447,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-931777.4701605247</v>
       </c>
       <c r="C6" t="n">
-        <v>396967.2755670673</v>
+        <v>396967.2755670672</v>
       </c>
       <c r="D6" t="n">
         <v>396967.2755670673</v>
       </c>
       <c r="E6" t="n">
-        <v>147479.2608921987</v>
+        <v>147131.8816378416</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.722699554</v>
+        <v>472544.343445197</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995536</v>
+        <v>472544.3434451969</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995536</v>
+        <v>472544.3434451969</v>
       </c>
       <c r="I6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451968</v>
       </c>
       <c r="J6" t="n">
-        <v>255360.5203022765</v>
+        <v>255013.1410479195</v>
       </c>
       <c r="K6" t="n">
-        <v>472891.7226995539</v>
+        <v>472544.3434451968</v>
       </c>
       <c r="L6" t="n">
-        <v>472891.7226995537</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="M6" t="n">
-        <v>387836.694764042</v>
+        <v>387489.3155096849</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995536</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995536</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="P6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451968</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>58.45810500191578</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>145.5179739757489</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.556632720372</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>115.4698465084172</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>173.5687740185445</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>145.5899787627314</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.27493605714508</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>142.46896971114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>14.76838798487604</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868574</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>537.6437863443698</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648392</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>395.0475418999253</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2148349.637561891</v>
+        <v>2150110.167864675</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324.2757366615648</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>177.6639791994885</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>134.6552054852412</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>14.46917553865621</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376562</v>
+        <v>166.9920602376567</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>180.2740132190241</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>231.611845472491</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814307</v>
+        <v>92.47445699814216</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380371</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>77.31354443380452</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174115</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>147.8972104906228</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>94.64226186542875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>3.00689298784087</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365844</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>133.3722917337063</v>
+        <v>5.421623586781394</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890447</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>105.8965430419461</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.96386702300485</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206847</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428298</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.4044447618827</v>
+        <v>108.2950343703279</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576163</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370328</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>31.26260713376574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1457.817288823007</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1072.029036224763</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>661.0431314351551</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>245.9706812801516</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.72178906653</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.72178906653</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.72178906653</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="3">
@@ -4403,25 +4403,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.5602567208161</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="C4" t="n">
-        <v>471.5602567208161</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="D4" t="n">
-        <v>471.5602567208161</v>
+        <v>760.6631235951729</v>
       </c>
       <c r="E4" t="n">
-        <v>471.5602567208161</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>324.6703092229058</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,10 +4509,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4521,19 +4521,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.67533979849</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592603</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.990851592603</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="X4" t="n">
-        <v>874.001300694586</v>
+        <v>1163.104167568943</v>
       </c>
       <c r="Y4" t="n">
-        <v>653.2087215510559</v>
+        <v>942.3115884254127</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458458</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4606,13 +4606,13 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
         <v>825.3518203322459</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1745.199585240994</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1745.199585240994</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1745.199585240994</v>
+        <v>1693.343189025371</v>
       </c>
       <c r="W7" t="n">
-        <v>1455.782415204033</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="X7" t="n">
-        <v>1227.792864306016</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.000285162486</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4789,31 +4789,31 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,28 +4822,28 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
         <v>3121.906610713899</v>
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4913,16 +4913,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X9" t="n">
         <v>1317.51949026613</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.5649387724261</v>
+        <v>463.6594280995005</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>294.7232451715936</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>144.6066057592579</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X10" t="n">
-        <v>788.005982746196</v>
+        <v>866.1004720732703</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026658</v>
+        <v>645.3078929297402</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.747908249255</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.9553291057244</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543961</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>189.4149073564858</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>189.4149073564858</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2443.925817935977</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2261.070983590881</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613822</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.39429195802</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.709803752133</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6028,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>733.455065717123</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>564.5188827892161</v>
       </c>
       <c r="D28" t="n">
-        <v>376.4492432300683</v>
+        <v>414.4022433768804</v>
       </c>
       <c r="E28" t="n">
-        <v>228.5361496476752</v>
+        <v>266.4891497944873</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.896109690893</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473628</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>580.899304487662</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>580.899304487662</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>430.7826650753262</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>282.8695714929331</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>282.8695714929331</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910802</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853354</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235158</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258099</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602297</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.74706939641</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359449</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614319</v>
       </c>
       <c r="Y31" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5477693179017</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2415.384692536053</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2415.384692536053</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T43" t="n">
-        <v>2415.384692536053</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880251</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,7 +7651,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7830,7 +7830,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
         <v>2254.869721166297</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>77.81244489841438</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>45.65245098079514</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>63.36835372228082</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.04875628922497</v>
+        <v>139.9994244361499</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>59.62759525032273</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194088</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038614</v>
+        <v>57.2291039219409</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194085</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.11263957635595</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516055</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516053</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.226132381220693e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314477</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.0670231448</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314489</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314483</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314482</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179362</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,16 +26441,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179341</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179341</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179343</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.0322517934</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26499,10 +26499,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931777.4701605247</v>
+        <v>-931777.4701605252</v>
       </c>
       <c r="C6" t="n">
         <v>396967.2755670672</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670673</v>
+        <v>396967.2755670678</v>
       </c>
       <c r="E6" t="n">
-        <v>147131.8816378416</v>
+        <v>147444.5229667625</v>
       </c>
       <c r="F6" t="n">
-        <v>472544.343445197</v>
+        <v>472856.9847741178</v>
       </c>
       <c r="G6" t="n">
-        <v>472544.3434451969</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="H6" t="n">
-        <v>472544.3434451969</v>
+        <v>472856.9847741183</v>
       </c>
       <c r="I6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="J6" t="n">
-        <v>255013.1410479195</v>
+        <v>255325.7823768404</v>
       </c>
       <c r="K6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="L6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741175</v>
       </c>
       <c r="M6" t="n">
-        <v>387489.3155096849</v>
+        <v>387801.9568386058</v>
       </c>
       <c r="N6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="O6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741185</v>
       </c>
       <c r="P6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741181</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,23 +26962,23 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.45810500191578</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>116.943785187832</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>11.77875716132797</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>151.556632720372</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333513</v>
+        <v>198.2808315333509</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>39.27493605714508</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>20.52579785133699</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>277.256643680326</v>
+        <v>277.2566436803269</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276546</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>142.2354048423647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,19 +28140,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.558558339858228e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28326,16 +28326,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>6.663454095015085e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -29498,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-7.517303009959066e-12</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29702,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>-7.517303009959066e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1.736439038534721e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29808,7 +29808,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043693</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34371,13 +34371,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010377</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902372</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -38019,13 +38019,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
